--- a/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.462</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.462</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,7 +73,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -167,9 +173,6 @@
   </si>
   <si>
     <t>Document technique</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -318,7 +321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -424,20 +427,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -459,122 +470,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -596,34 +607,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,106 +73,103 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>XDS classCode CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Compte rendu</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Synthèse</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Imagerie médicale</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Dispensation</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Plan de soins, protocole de soins</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Traitement administré</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Certificat, déclaration</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Données de remboursement</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Autres documents déposés par le patient</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Document de gestion</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Document technique</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>XDS classCode CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Compte rendu</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Synthèse</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Imagerie médicale</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Prescription</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Dispensation</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Plan de soins, protocole de soins</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Traitement administré</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Certificat, déclaration</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Données de remboursement</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Autres documents déposés par le patient</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Document de gestion</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Document technique</t>
   </si>
   <si>
     <t>System URI</t>
@@ -321,7 +318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -427,28 +424,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -470,122 +459,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -607,34 +596,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -76,103 +76,100 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>XDS classCode CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Compte rendu</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Synthèse</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Imagerie médicale</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Dispensation</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Plan de soins, protocole de soins</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Traitement administré</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Certificat, déclaration</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Données de remboursement</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Autres documents déposés par le patient</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Document de gestion</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Document technique</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>XDS classCode CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Compte rendu</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Synthèse</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Imagerie médicale</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Prescription</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Dispensation</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Plan de soins, protocole de soins</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Traitement administré</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Certificat, déclaration</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Données de remboursement</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Autres documents déposés par le patient</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Document de gestion</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Document technique</t>
   </si>
   <si>
     <t>System URI</t>
@@ -321,7 +318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -427,28 +424,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -470,122 +459,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -607,34 +596,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J06-XdsClassCode-CISIS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
